--- a/VOC_Particulate_Sensor-master/AltiumDesign/AirQuality_PRJ.xlsx
+++ b/VOC_Particulate_Sensor-master/AltiumDesign/AirQuality_PRJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brad\Desktop\VOC_Particulate_Sensor\VOC_Particulate_Sensor-master\AltiumDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE50796-B975-4DC6-9D7C-17310FD52733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CCFA148-79E0-4666-9EF8-45F84B8BDA6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{B018B3BD-9D3C-4A8B-8F21-EBA4FBA2D3C8}"/>
+    <workbookView xWindow="3510" yWindow="4110" windowWidth="28800" windowHeight="15435" xr2:uid="{249E813F-516D-4BA2-B499-16F3AD7001EA}"/>
   </bookViews>
   <sheets>
     <sheet name="AirQuality_PRJ" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Comment</t>
   </si>
@@ -81,40 +83,49 @@
     <t>CMP-2007-03335-1</t>
   </si>
   <si>
-    <t>LTST-C190GKT</t>
-  </si>
-  <si>
-    <t>LED GREEN CLEAR CHIP SMD</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>FP-LTST-C190GKT-MFG</t>
-  </si>
-  <si>
-    <t>CMP-22017-000018-1</t>
-  </si>
-  <si>
-    <t>Designator5</t>
-  </si>
-  <si>
-    <t>61300411021</t>
-  </si>
-  <si>
-    <t>HSMY-C190</t>
-  </si>
-  <si>
-    <t>LED Uni-Color Yellow, 65 mW, 20 mA, -40 to 85 degC, 2-Pin SMD, RoHS, Tape and Reel</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>AVAG-HSMX-C190_V</t>
-  </si>
-  <si>
-    <t>CMP-1744-00003-1</t>
+    <t>150080BS75000</t>
+  </si>
+  <si>
+    <t>SMD mono-color Chip LED, WL-SMCW, Blue</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>0805_A</t>
+  </si>
+  <si>
+    <t>CMP-1426-00008-1</t>
+  </si>
+  <si>
+    <t>TSM-104-01-L-SH</t>
+  </si>
+  <si>
+    <t>0.025" SQ Post Header, Surface Mount, Horizontal, -55 to 125 degC, 2.54 mm Pitch, 4-Pin, Male, RoHS</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>SMTC-TSM-104-01-X-SH</t>
+  </si>
+  <si>
+    <t>CMP-1024-00225-1</t>
+  </si>
+  <si>
+    <t>TLMS1000-GS08</t>
+  </si>
+  <si>
+    <t>Low Current LED, 40 mW, 1.8 V, -40 to 100 degC, 2-Pin SMD (0603), RoHS, Tape and Reel</t>
+  </si>
+  <si>
+    <t>PWR</t>
+  </si>
+  <si>
+    <t>VISH-TLMS1000_V</t>
+  </si>
+  <si>
+    <t>CMP-2000-07254-1</t>
   </si>
   <si>
     <t>ERJ3EKF1002V</t>
@@ -123,7 +134,7 @@
     <t>Chip Resistor, 10 KOhm, +/- 1%, 0.1 W, -55 to 155 degC, 0603 (1608 Metric), RoHS, Tape and Reel</t>
   </si>
   <si>
-    <t>R1, R2, R3</t>
+    <t>R1</t>
   </si>
   <si>
     <t>RESC1609X55X30LL15T15</t>
@@ -132,13 +143,43 @@
     <t>CMP-2000-07452-1</t>
   </si>
   <si>
+    <t>ERJ-3EKF1001V</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>R2, R3</t>
+  </si>
+  <si>
+    <t>RESC1608X55X30LL15T15</t>
+  </si>
+  <si>
+    <t>CMP-2000-00180-1</t>
+  </si>
+  <si>
+    <t>DS1621V+</t>
+  </si>
+  <si>
+    <t>2-wire 0.5 degC Accurate Temperature Sensor and Thermostat, 9 to 12 Bits Temperature Resolution, -55 to 125 degC, 8-Pin SOIC (W8+2), Pb-Free</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>MAXM-W8+2_L</t>
+  </si>
+  <si>
+    <t>CMP-0253-01131-1</t>
+  </si>
+  <si>
     <t>LD1117AS18TR</t>
   </si>
   <si>
     <t>1A, Low Drop Positive Voltage Regulator, 1.8V, 4-Pin SOT-223, Tape and Reel</t>
   </si>
   <si>
-    <t>U1</t>
+    <t>U2</t>
   </si>
   <si>
     <t>SOT-223_L</t>
@@ -147,34 +188,16 @@
     <t>CMP-0244-00319-1</t>
   </si>
   <si>
+    <t>SGP30</t>
+  </si>
+  <si>
     <t>AIR QUALITY GAS SENSOR FOR VOC'S</t>
   </si>
   <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>SGP30</t>
+    <t>U3</t>
   </si>
   <si>
     <t>CMP-011-0000-1</t>
-  </si>
-  <si>
-    <t>DS1621V+</t>
-  </si>
-  <si>
-    <t>2-wire 0.5 degC Accurate Temperature Sensor and Thermostat, 9 to 12 Bits Temperature Resolution, -55 to 125 degC, 8-Pin SOIC (W8+2), Pb-Free</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>MAXM-W8+2_L</t>
-  </si>
-  <si>
-    <t>CMP-0253-01131-1</t>
-  </si>
-  <si>
-    <t>Pin</t>
   </si>
 </sst>
 </file>
@@ -556,15 +579,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283E8495-18BD-43FA-922E-A4F3AA3F6D2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0369283D-201A-47BB-BE5D-C528BEF7E2AA}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -629,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -649,37 +670,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -687,85 +712,107 @@
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F7" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup scale="86" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>